--- a/Output/March/productivity_agent/productivity_agent_2022-03-12.xlsx
+++ b/Output/March/productivity_agent/productivity_agent_2022-03-12.xlsx
@@ -23239,7 +23239,7 @@
         <v>0</v>
       </c>
       <c r="N70">
-        <v>2240</v>
+        <v>2256.5</v>
       </c>
       <c r="O70">
         <v>0</v>
@@ -23353,7 +23353,7 @@
         <v>0</v>
       </c>
       <c r="AZ70">
-        <v>473.2394366197183</v>
+        <v>476.725352112676</v>
       </c>
       <c r="BA70">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="CL70">
-        <v>0.5567522783761392</v>
+        <v>0.5608533554266777</v>
       </c>
       <c r="CM70">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="DA70">
-        <v>0.4879489592485716</v>
+        <v>0.4906203030154362</v>
       </c>
     </row>
     <row r="71" spans="1:105">
@@ -25458,7 +25458,7 @@
         <v>0</v>
       </c>
       <c r="N77">
-        <v>5605</v>
+        <v>5817</v>
       </c>
       <c r="O77">
         <v>0</v>
@@ -25572,7 +25572,7 @@
         <v>0</v>
       </c>
       <c r="AZ77">
-        <v>992.0353982300884</v>
+        <v>1029.557522123894</v>
       </c>
       <c r="BA77">
         <v>0</v>
@@ -25686,7 +25686,7 @@
         <v>0</v>
       </c>
       <c r="CL77">
-        <v>1.167100468505986</v>
+        <v>1.211244143675169</v>
       </c>
       <c r="CM77">
         <v>0</v>
@@ -25731,7 +25731,7 @@
         <v>0</v>
       </c>
       <c r="DA77">
-        <v>1.075402714932127</v>
+        <v>1.113773755656108</v>
       </c>
     </row>
     <row r="78" spans="1:105">
